--- a/demo/db/rst-dist_db schema v1.0.xlsx
+++ b/demo/db/rst-dist_db schema v1.0.xlsx
@@ -1519,6 +1519,12 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1557,12 +1563,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1606,8 +1606,8 @@
       <sheetName val="sys_log"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="C2" t="str">
@@ -1664,7 +1664,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="10" refreshError="1"/>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="C2" t="str">
@@ -1990,26 +1990,26 @@
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="2:9" ht="16.5" customHeight="1">
       <c r="B4" s="9" t="s">
@@ -2105,34 +2105,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -2406,34 +2406,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -2620,34 +2620,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -3015,7 +3015,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I2"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3031,34 +3031,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1">
       <c r="A3" s="39" t="s">
@@ -3246,34 +3246,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="39" t="s">
@@ -3792,34 +3792,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -3981,34 +3981,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -4145,34 +4145,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -4456,34 +4456,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -4763,34 +4763,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">

--- a/demo/db/rst-dist_db schema v1.0.xlsx
+++ b/demo/db/rst-dist_db schema v1.0.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="706" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="706" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="1" r:id="rId1"/>
     <sheet name="目录" sheetId="2" r:id="rId2"/>
-    <sheet name="dist_agent" sheetId="25" r:id="rId3"/>
-    <sheet name="dist_agent_level" sheetId="51" r:id="rId4"/>
+    <sheet name="dist_buyer" sheetId="53" r:id="rId3"/>
+    <sheet name="dist_integral_rule" sheetId="54" r:id="rId4"/>
+    <sheet name="dist_integral_flow" sheetId="55" r:id="rId5"/>
+    <sheet name="dist_agent" sheetId="25" r:id="rId6"/>
+    <sheet name="dist_grow_up_rule" sheetId="51" r:id="rId7"/>
+    <sheet name="dist_grow_up_flow" sheetId="52" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="201">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +80,6 @@
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySql DDL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -184,10 +185,530 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belong_to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属代理商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：铜牌，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：银牌，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：金牌，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：钻石会员</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除标记（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：正常；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：锁定；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：黑名单）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dis_agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dist_grow_up_flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商成长值流水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dist_agent.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grou_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长值类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：购买商品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：转发商品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：转发文章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 
+03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：签到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：粉丝完成广告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：新增粉丝
+06：新增代理商</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mall_buyer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾客编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信号，关联微信信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wc_user.open_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>total_amt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>顾客钱包（余额）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,11 +717,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nick_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昵称</t>
+    <t>login_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -259,7 +784,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：铜牌，</t>
+      <t>：注册会员，</t>
     </r>
     <r>
       <rPr>
@@ -361,6 +886,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -463,51 +992,435 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代理商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dis_agent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dist_agent_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商级别信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>级别编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商钱包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>级别名称</t>
+    <t>SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obejct Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城用户（粉丝）信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为代理商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：是</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dist_grow_up_rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商成长值规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>create_by</t>
+  </si>
+  <si>
+    <t>创建者</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>create_date</t>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_by</t>
+  </si>
+  <si>
+    <t>更新者</t>
+  </si>
+  <si>
+    <t>update_date</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除标记（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：正常；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：删除）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除标记（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：正常；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：删除）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obejct Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_office_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noraml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_office_del_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noraml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dist_integral_rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城积分规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDCreato.getID();</t>
+  </si>
+  <si>
+    <t>IDCreato.getID();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDCreato.getID();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商是否可以获取积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝积分流水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：购买商品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：转发商品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：转发文章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 
+03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：签到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：新增粉丝
+05：评论购买商品</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dist_buyer.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyer_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,8 +1506,34 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,8 +1564,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -802,15 +1747,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -847,6 +1783,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -857,7 +1905,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -891,9 +1939,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -903,9 +1948,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -921,79 +2083,37 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1021,7 +2141,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="修订历史"/>
@@ -1110,7 +2230,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1152,7 +2272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1184,9 +2304,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1218,6 +2356,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1393,23 +2549,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="50.125" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="50.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="16.5" customHeight="1">
+    <row r="1" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1421,29 +2577,29 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="2:9" ht="16.5" customHeight="1">
+    <row r="2" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1455,7 +2611,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="2:9" ht="16.5" customHeight="1">
+    <row r="5" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +2628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="16.5" customHeight="1">
+    <row r="6" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1487,25 +2643,25 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:9" ht="16.5" customHeight="1">
+    <row r="7" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="9" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="10" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="11" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="12" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="13" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="14" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="15" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="16" spans="2:9" ht="16.5" customHeight="1"/>
-    <row r="17" ht="16.5" customHeight="1"/>
-    <row r="18" ht="16.5" customHeight="1"/>
-    <row r="19" ht="16.5" customHeight="1"/>
+    <row r="8" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:F3"/>
@@ -1517,24 +2673,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="2" width="32.75" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="51.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1551,24 +2707,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1">
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>77</v>
+      <c r="B2" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="21" customHeight="1">
+    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="str">
         <f>[1]sys_role!C2</f>
@@ -1576,11 +2732,11 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="str">
         <f>[1]sys_menu!C2</f>
@@ -1588,11 +2744,11 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="3"/>
       <c r="D5" s="1" t="str">
         <f>[1]sys_user_role!C2</f>
@@ -1600,11 +2756,11 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1">
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="str">
         <f>[1]sys_role_menu!C2</f>
@@ -1612,11 +2768,11 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="str">
         <f>[1]sys_office!C2</f>
@@ -1624,11 +2780,11 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="3"/>
       <c r="D8" s="1" t="str">
         <f>[1]sys_role_office!C2</f>
@@ -1636,11 +2792,11 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="3"/>
       <c r="D9" s="1" t="str">
         <f>[1]sys_dict!C2</f>
@@ -1648,20 +2804,20 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="3"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3"/>
       <c r="D11" s="1" t="str">
         <f>[1]sys_log!C2</f>
@@ -1669,9 +2825,9 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="13"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1689,1104 +2845,3145 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="9" max="9" width="43.88671875" customWidth="1"/>
+    <col min="10" max="10" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1" thickBot="1">
-      <c r="A1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="1:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="F3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" s="10" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1">
+        <v>88</v>
+      </c>
+      <c r="J3" s="36" t="str">
+        <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
+        <v>CREATE TABLE mall_buyer (</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>29</v>
+      <c r="B4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="G4" s="9">
         <v>32</v>
       </c>
       <c r="H4" s="9"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1">
+      <c r="I4" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="J4" s="36" t="str">
+        <f t="shared" ref="J4:J23" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>id varchar(32) NOT NULL COMMENT '顾客编号',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32" t="s">
-        <v>29</v>
+      <c r="B5" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="32">
+        <v>97</v>
+      </c>
+      <c r="G5" s="21">
         <v>64</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1">
+      <c r="H5" s="21"/>
+      <c r="I5" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>open_id varchar(64) COMMENT '微信号，关联微信信息',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32" t="s">
-        <v>29</v>
+      <c r="B6" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="32">
+        <v>102</v>
+      </c>
+      <c r="G6" s="21">
         <v>16</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1">
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>grow_up int(16) COMMENT '成长值',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32" t="s">
-        <v>29</v>
+      <c r="B7" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="32">
+        <v>106</v>
+      </c>
+      <c r="G7" s="21">
         <v>16</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-    </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1">
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>integral int(16) COMMENT '积分',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32" t="s">
-        <v>29</v>
+      <c r="B8" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="32">
+        <v>97</v>
+      </c>
+      <c r="G8" s="21">
         <v>24</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1">
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>total_amt varchar(24) COMMENT '顾客钱包（余额）',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32" t="s">
-        <v>29</v>
+      <c r="B9" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="32">
+        <v>97</v>
+      </c>
+      <c r="G9" s="21">
         <v>32</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1">
+      <c r="H9" s="21"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>name varchar(32) COMMENT '姓名',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32" t="s">
-        <v>29</v>
+      <c r="B10" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="32">
+        <v>113</v>
+      </c>
+      <c r="G10" s="21">
         <v>32</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1">
+      <c r="H10" s="21"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>login_name varchar(32) COMMENT '登陆名',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32" t="s">
-        <v>29</v>
+      <c r="B11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="32">
+        <v>97</v>
+      </c>
+      <c r="G11" s="21">
         <v>32</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1">
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>password varchar(32) COMMENT '密码',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32" t="s">
-        <v>29</v>
+      <c r="B12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="32">
+        <v>97</v>
+      </c>
+      <c r="G12" s="21">
         <v>16</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1">
+      <c r="H12" s="21"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>mobile_no varchar(16) COMMENT '手机号',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32" t="s">
-        <v>29</v>
+      <c r="B13" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="32">
+        <v>97</v>
+      </c>
+      <c r="G13" s="21">
         <v>24</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="35"/>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1">
+      <c r="H13" s="21"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>id_card varchar(24) COMMENT '身份证号',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="32">
-        <v>32</v>
-      </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1">
+      <c r="B14" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21">
+        <v>0</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>is_agent char(1) DEFAULT 0 COMMENT '是否为代理商',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>12</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="32">
-        <v>24</v>
-      </c>
-      <c r="H15" s="32">
-        <v>1</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1">
+      <c r="B15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="21">
+        <v>32</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>belong_to varchar(32) COMMENT '所属代理商',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>13</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="32">
-        <v>64</v>
-      </c>
-      <c r="H16" s="32">
+      <c r="B16" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="21">
         <v>1</v>
       </c>
-      <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9" ht="19.5" customHeight="1">
+      <c r="H16" s="21">
+        <v>1</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>level char(1) NOT NULL DEFAULT 1 COMMENT '粉丝级别',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>14</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="32" t="s">
-        <v>29</v>
+      <c r="B17" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="32">
-        <v>16</v>
-      </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="19.5" customHeight="1">
+        <v>97</v>
+      </c>
+      <c r="G17" s="21">
+        <v>64</v>
+      </c>
+      <c r="H17" s="21">
+        <v>1</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>email varchar(64) DEFAULT 1 COMMENT '邮箱地址',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>15</v>
       </c>
-      <c r="B18" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="31" t="s">
-        <v>29</v>
+      <c r="B18" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="38"/>
-    </row>
-    <row r="19" spans="1:9" ht="19.5" customHeight="1">
+        <v>97</v>
+      </c>
+      <c r="G18" s="21">
+        <v>16</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>birthday varchar(16) COMMENT '生日',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>16</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="9" t="s">
-        <v>30</v>
+      <c r="B19" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="9">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="19.5" customHeight="1">
+        <v>133</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>birthday_rate float() COMMENT '生日折扣',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>17</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32" t="s">
-        <v>29</v>
+      <c r="B20" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="32">
-        <v>128</v>
-      </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="35"/>
-    </row>
-    <row r="21" spans="1:9" ht="19.5" customHeight="1">
+        <v>124</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '用户标记',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>18</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32" t="s">
-        <v>29</v>
+      <c r="B21" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="35"/>
-    </row>
-    <row r="22" spans="1:9" ht="19.5" customHeight="1">
+        <v>113</v>
+      </c>
+      <c r="G21" s="21">
+        <v>128</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>remarks varchar(128) COMMENT '备注',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>19</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="9" t="s">
-        <v>29</v>
+      <c r="B22" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="45"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="D24" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="21"/>
+        <v>142</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>create_date datetime DEFAULT CURRENT_datetime COMMENT '创建（注册）时间',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>20</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>update_date datetime DEFAULT CURRENT_datetime COMMENT '最后更新时间',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="37" t="str">
+        <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
+        <v>PRIMARY KEY (id)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="63"/>
+      <c r="J25" s="37" t="str">
+        <f>") ENGINE=InnoDB"</f>
+        <v>) ENGINE=InnoDB</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="J26" s="37" t="str">
+        <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
+        <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="37" t="str">
+        <f>"ROW_FORMAT=COMPACT;"</f>
+        <v>ROW_FORMAT=COMPACT;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D24:E24"/>
+  <mergeCells count="8">
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D24:E24" location="目录!A1" display="返回目录"/>
+    <hyperlink ref="D25:E25" location="目录!A1" display="返回目录"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="9" max="9" width="43.88671875" customWidth="1"/>
+    <col min="10" max="10" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="36" t="str">
+        <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
+        <v>CREATE TABLE dist_integral_rule (</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="9">
+        <v>32</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="J4" s="36" t="str">
+        <f t="shared" ref="J4:J11" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>id varchar(32) NOT NULL COMMENT '编号',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="21">
+        <v>64</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>rule_name varchar(64) NOT NULL COMMENT '规则名称',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="21">
+        <v>8</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>integral int(8) COMMENT '积分',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="21">
+        <v>1</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="J7" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>is_agent char(1) DEFAULT 0 COMMENT '代理商是否可以获取积分',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="J8" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '用户标记',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="21">
+        <v>128</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>remarks varchar(128) COMMENT '备注',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>create_date datetime DEFAULT CURRENT_datetime COMMENT '创建（注册）时间',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>update_date datetime DEFAULT CURRENT_datetime COMMENT '最后更新时间',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="37" t="str">
+        <f>"PRIMARY KEY ("&amp;B4&amp;")"</f>
+        <v>PRIMARY KEY (id)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="J13" s="37" t="str">
+        <f>") ENGINE=InnoDB"</f>
+        <v>) ENGINE=InnoDB</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="J14" s="37" t="str">
+        <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
+        <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="37" t="str">
+        <f>"ROW_FORMAT=COMPACT;"</f>
+        <v>ROW_FORMAT=COMPACT;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="37"/>
+    </row>
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="D13:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D13:E13" location="目录!A1" display="返回目录"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="36" t="str">
+        <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
+        <v>CREATE TABLE dist_grow_up_flow (</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9">
+        <v>32</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" s="36" t="str">
+        <f t="shared" ref="J4:J11" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>id varchar(32) NOT NULL COMMENT '流水编号',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="21">
+        <v>64</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>open_id varchar(64) COMMENT '微信号，关联微信信息',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="21">
+        <v>32</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>buyer_id varchar(32) NOT NULL COMMENT '商城用户编号',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="21">
+        <v>4</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>integral int(4) NOT NULL DEFAULT 0 COMMENT '积分',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="44.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="21">
+        <v>2</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>type char(2) COMMENT '积分类型',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="21">
+        <v>64</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>remarks varchar(64) COMMENT '备注',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>create_date datetime DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>update_date datetime DEFAULT CURRENT_datetime COMMENT '最后更新时间',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="37" t="str">
+        <f>"PRIMARY KEY ("&amp;B1&amp;")"</f>
+        <v>PRIMARY KEY ()</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="J13" s="37" t="str">
+        <f>") ENGINE=InnoDB"</f>
+        <v>) ENGINE=InnoDB</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="37" t="str">
+        <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
+        <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="37" t="str">
+        <f>"ROW_FORMAT=COMPACT;"</f>
+        <v>ROW_FORMAT=COMPACT;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="69"/>
+      <c r="J17">
+        <f>F17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>2</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="69"/>
+      <c r="J18">
+        <f>F18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D13:E13" location="目录!A1" display="返回目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
     <col min="9" max="9" width="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" customWidth="1"/>
+    <col min="10" max="10" width="36.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1" thickBot="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="1:10" ht="30">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1">
+      <c r="J3" s="36" t="str">
+        <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
+        <v>CREATE TABLE dist_agent (</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="27" t="s">
+      <c r="E4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="9">
         <v>32</v>
       </c>
       <c r="H4" s="9"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1">
+      <c r="I4" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" s="36" t="str">
+        <f t="shared" ref="J4:J20" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>id varchar(32) NOT NULL COMMENT '代理商编号',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="21">
+        <v>64</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="32">
-        <v>64</v>
-      </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1">
+      <c r="J5" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>open_id varchar(64) COMMENT '微信号，关联微信信息',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32" t="s">
+      <c r="B6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="21">
+        <v>16</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>grow_up int(16) COMMENT '成长值',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="21">
+        <v>32</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>name varchar(32) COMMENT '姓名',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="21">
+        <v>32</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>nick_name varchar(32) COMMENT '昵称',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="21">
+        <v>32</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>password varchar(32) COMMENT '密码',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="21">
+        <v>16</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>mobile_no varchar(16) COMMENT '手机号',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="21">
+        <v>24</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>id_card varchar(24) COMMENT '身份证号',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="21">
+        <v>32</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>belong_to varchar(32) COMMENT '所属代理商',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="32">
+      <c r="F13" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
+      <c r="H13" s="21">
+        <v>1</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>level char(1) NOT NULL DEFAULT 1 COMMENT '粉丝级别',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="21">
+        <v>64</v>
+      </c>
+      <c r="H14" s="21">
+        <v>1</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>email varchar(64) DEFAULT 1 COMMENT '邮箱地址',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>16</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32" t="s">
+      <c r="B15" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="32">
-        <v>16</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-    </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32" t="s">
+      <c r="F15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '用户标记',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>17</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="21">
+        <v>128</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>remarks varchar(128) COMMENT '备注',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
+        <v>22</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="40">
+        <v>32</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <v>23</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:14" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
+        <v>24</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="9">
+        <v>32</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:14" s="43" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
+        <v>25</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="32">
-        <v>24</v>
-      </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="32">
-        <v>32</v>
-      </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="32">
-        <v>32</v>
-      </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="32">
-        <v>32</v>
-      </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="32">
-        <v>16</v>
-      </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A13" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="32">
-        <v>24</v>
-      </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="35"/>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="9">
-        <v>11</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="32">
-        <v>32</v>
-      </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="9">
-        <v>12</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="32">
-        <v>24</v>
-      </c>
-      <c r="H15" s="32">
+      <c r="F20" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="37" t="str">
+        <f>"PRIMARY KEY ("&amp;B10&amp;")"</f>
+        <v>PRIMARY KEY (mobile_no)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="63"/>
+      <c r="J22" s="37" t="str">
+        <f>") ENGINE=InnoDB"</f>
+        <v>) ENGINE=InnoDB</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="37" t="str">
+        <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
+        <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="37" t="str">
+        <f>"ROW_FORMAT=COMPACT;"</f>
+        <v>ROW_FORMAT=COMPACT;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="66"/>
+    </row>
+    <row r="26" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>1</v>
       </c>
-      <c r="I15" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="9">
-        <v>13</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="32">
-        <v>64</v>
-      </c>
-      <c r="H16" s="32">
-        <v>1</v>
-      </c>
-      <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A17" s="9">
-        <v>14</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="32">
-        <v>16</v>
-      </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A18" s="9">
-        <v>15</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="38"/>
-    </row>
-    <row r="19" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A19" s="9">
-        <v>16</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="9">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9">
+      <c r="B26" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="69"/>
+      <c r="J26">
+        <f>F26</f>
         <v>0</v>
       </c>
-      <c r="I19" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A20" s="9">
-        <v>17</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="32">
-        <v>128</v>
-      </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="35"/>
-    </row>
-    <row r="21" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A21" s="9">
-        <v>18</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="35"/>
-    </row>
-    <row r="22" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A22" s="9">
-        <v>19</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="45"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="D24" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="21"/>
+    </row>
+    <row r="27" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>2</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="69"/>
+      <c r="J27">
+        <f>F27</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D24:E24" location="目录!A1" display="返回目录"/>
+    <hyperlink ref="D22:E22" location="目录!A1" display="返回目录"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="36" t="str">
+        <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
+        <v>CREATE TABLE dist_grow_up_rule (</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9">
+        <v>32</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="J4" s="36" t="str">
+        <f t="shared" ref="J4:J12" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>id varchar(32) NOT NULL COMMENT '编号',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="21">
+        <v>64</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>rule_name varchar(64) NOT NULL COMMENT '规则名称',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="21">
+        <v>4</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>grow_up int(4) NOT NULL DEFAULT 0 COMMENT '成长值',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>del_flag char(1) NOT NULL DEFAULT 0 COMMENT '用户标记',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="21">
+        <v>64</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>remarks varchar(64) COMMENT '备注',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="40">
+        <v>32</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>create_by varchar(32) NOT NULL COMMENT '创建者',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>create_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:14" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="9">
+        <v>32</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>update_by varchar(32) NOT NULL COMMENT '更新者',</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:14" s="43" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>update_date datetime NOT NULL DEFAULT CURRENT_datetime COMMENT '更新时间',</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="37" t="str">
+        <f>"PRIMARY KEY ("&amp;B2&amp;")"</f>
+        <v>PRIMARY KEY ()</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="63"/>
+      <c r="J14" s="37" t="str">
+        <f>") ENGINE=InnoDB"</f>
+        <v>) ENGINE=InnoDB</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="37" t="str">
+        <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
+        <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="37" t="str">
+        <f>"ROW_FORMAT=COMPACT;"</f>
+        <v>ROW_FORMAT=COMPACT;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="66"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>1</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="69"/>
+      <c r="J18">
+        <f>F18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>2</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="69"/>
+      <c r="J19">
+        <f>F19</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D14:E14" location="目录!A1" display="返回目录"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="36" t="str">
+        <f>"CREATE TABLE " &amp; C1 &amp; " ("</f>
+        <v>CREATE TABLE dist_grow_up_flow (</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9">
+        <v>32</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" s="36" t="str">
+        <f t="shared" ref="J4:J11" si="0">B4&amp;" "&amp;IF(F4&lt;&gt;"datetime",F4&amp;"("&amp;G4&amp;")",F4)&amp;IF(E4="N"," NOT NULL","")&amp;IF(H4&lt;&gt;""," DEFAULT "&amp;H4,IF(F4&lt;&gt;"datetime",""," DEFAULT CURRENT_datetime"))&amp;" COMMENT '"&amp;C4&amp;"',"</f>
+        <v>id varchar(32) NOT NULL COMMENT '流水编号',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="21">
+        <v>64</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>open_id varchar(64) COMMENT '微信号，关联微信信息',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="21">
+        <v>32</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>agent_id varchar(32) NOT NULL COMMENT '代理商编号',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="21">
+        <v>4</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>grou_up int(4) NOT NULL DEFAULT 0 COMMENT '成长值',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="44.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="21">
+        <v>2</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>type char(2) COMMENT '成长值类型',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="21">
+        <v>64</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>remarks varchar(64) COMMENT '备注',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>create_date datetime DEFAULT CURRENT_datetime COMMENT '创建时间',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>update_date datetime DEFAULT CURRENT_datetime COMMENT '最后更新时间',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="37" t="str">
+        <f>"PRIMARY KEY ("&amp;B1&amp;")"</f>
+        <v>PRIMARY KEY ()</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="J13" s="37" t="str">
+        <f>") ENGINE=InnoDB"</f>
+        <v>) ENGINE=InnoDB</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="37" t="str">
+        <f>"DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci"</f>
+        <v>DEFAULT CHARACTER SET=UTF8 COLLATE=utf8_general_ci</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="37" t="str">
+        <f>"ROW_FORMAT=COMPACT;"</f>
+        <v>ROW_FORMAT=COMPACT;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="69"/>
+      <c r="J17">
+        <f>F17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>2</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="69"/>
+      <c r="J18">
+        <f>F18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="D13:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D13:E13" location="目录!A1" display="返回目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
